--- a/elder-consumption/2021sep/Regression models_tables_elders article_09012021.xlsx
+++ b/elder-consumption/2021sep/Regression models_tables_elders article_09012021.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fedbdb6a2bad2094/Documents/GitHub/Pet-projects/elder-consumption/2021sep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2AC1D3B-8E17-4C1A-AFB3-1606A2D7015E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31D2A5B4-2087-4BD8-94B2-C8A6E326E6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logistic model" sheetId="2" r:id="rId1"/>
     <sheet name="linear model" sheetId="3" r:id="rId2"/>
-    <sheet name="crosstable generation  exp_bin" sheetId="4" r:id="rId3"/>
-    <sheet name="distribution log leis+trav " sheetId="5" r:id="rId4"/>
+    <sheet name="logistic langyi" sheetId="6" r:id="rId3"/>
+    <sheet name="tobit model" sheetId="7" r:id="rId4"/>
+    <sheet name="crosstable generation  exp_bin" sheetId="4" r:id="rId5"/>
+    <sheet name="distribution log leis+trav " sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="182">
   <si>
     <t>Dependent variable (travel + leisure expenditure: Yes/No)</t>
   </si>
@@ -234,9 +236,6 @@
     <t>0.321***</t>
   </si>
   <si>
-    <t>Dependent variable (log og travel + leisure expenditure:)</t>
-  </si>
-  <si>
     <t>0.773***</t>
   </si>
   <si>
@@ -376,6 +375,216 @@
   </si>
   <si>
     <t xml:space="preserve">      p-value: &lt;0.001</t>
+  </si>
+  <si>
+    <t>log medical expenditure +1 (in RMB)</t>
+  </si>
+  <si>
+    <t>0.07***</t>
+  </si>
+  <si>
+    <t>Familisize</t>
+  </si>
+  <si>
+    <t>-0.08***</t>
+  </si>
+  <si>
+    <t>(0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.66 ***  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.60 *** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28 *** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.70 *** </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.91 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27 *** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.80 *** </t>
+  </si>
+  <si>
+    <t>-0.47***</t>
+  </si>
+  <si>
+    <t>-0.8***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25 *** </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.88 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.69 *** </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.53 *** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.70 ***  </t>
+  </si>
+  <si>
+    <t>0.06***</t>
+  </si>
+  <si>
+    <t>(0.01)</t>
+  </si>
+  <si>
+    <t>0.29**</t>
+  </si>
+  <si>
+    <t>-0.05*</t>
+  </si>
+  <si>
+    <t>Dependent variable (log of travel + leisure expenditure:)</t>
+  </si>
+  <si>
+    <t>intercept1</t>
+  </si>
+  <si>
+    <t>intercept2</t>
+  </si>
+  <si>
+    <t>0.995***</t>
+  </si>
+  <si>
+    <t>(0.25)</t>
+  </si>
+  <si>
+    <t>-1.87***</t>
+  </si>
+  <si>
+    <t>(0.26)</t>
+  </si>
+  <si>
+    <t>(0.19)</t>
+  </si>
+  <si>
+    <t>(0.28)</t>
+  </si>
+  <si>
+    <t>(0.33)</t>
+  </si>
+  <si>
+    <t>(0.17)</t>
+  </si>
+  <si>
+    <t>log medical expenditure +1(in RMB)</t>
+  </si>
+  <si>
+    <t>(0.03)</t>
+  </si>
+  <si>
+    <t>(0.23)</t>
+  </si>
+  <si>
+    <t>(0.05)</t>
+  </si>
+  <si>
+    <t>-3.78***</t>
+  </si>
+  <si>
+    <t>1.58***</t>
+  </si>
+  <si>
+    <t>Log-likelihood</t>
+  </si>
+  <si>
+    <t>Df</t>
+  </si>
+  <si>
+    <t>-4.57***</t>
+  </si>
+  <si>
+    <t>0.979***</t>
+  </si>
+  <si>
+    <t>0.179***</t>
+  </si>
+  <si>
+    <t>（0.26）</t>
+  </si>
+  <si>
+    <t>（0.25）</t>
+  </si>
+  <si>
+    <t>2.451***</t>
+  </si>
+  <si>
+    <t>3.768***</t>
+  </si>
+  <si>
+    <t>5.346***</t>
+  </si>
+  <si>
+    <t>1.886***</t>
+  </si>
+  <si>
+    <t>3.050***</t>
+  </si>
+  <si>
+    <t>1.804***</t>
+  </si>
+  <si>
+    <t>0.696**</t>
+  </si>
+  <si>
+    <t>-0.215***</t>
+  </si>
+  <si>
+    <t>-1.226***</t>
+  </si>
+  <si>
+    <t>-1.416***</t>
+  </si>
+  <si>
+    <t>(0.24)</t>
+  </si>
+  <si>
+    <t>2.408***</t>
+  </si>
+  <si>
+    <t>3.730***</t>
+  </si>
+  <si>
+    <t>5.265***</t>
+  </si>
+  <si>
+    <t>1.900***</t>
+  </si>
+  <si>
+    <t>3.049***</t>
+  </si>
+  <si>
+    <t>3.093***</t>
+  </si>
+  <si>
+    <t>1.885***</t>
+  </si>
+  <si>
+    <t>0.159***</t>
+  </si>
+  <si>
+    <t>0.651**</t>
+  </si>
+  <si>
+    <t>-0.138**</t>
+  </si>
+  <si>
+    <t>3.237***</t>
+  </si>
+  <si>
+    <t>Mac Fadden R²</t>
   </si>
 </sst>
 </file>
@@ -385,7 +594,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,8 +614,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,8 +646,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -572,11 +793,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -621,6 +922,46 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -661,7 +1002,7 @@
         <xdr:cNvPr id="5121" name="AutoShape 1" descr="http://127.0.0.1:25593/graphics/3a70a26b-b57c-4559-8d46-76829c87ba2e.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001140000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001140000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -709,7 +1050,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -759,7 +1100,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1059,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1442,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1454,7 +1795,7 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>43</v>
@@ -1506,7 +1847,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="14"/>
       <c r="C8" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1515,14 +1856,14 @@
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="14"/>
       <c r="C10" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1549,7 +1890,7 @@
         <v>58</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1560,7 +1901,7 @@
         <v>59</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1569,7 +1910,7 @@
         <v>60</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1580,7 +1921,7 @@
         <v>63</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1589,7 +1930,7 @@
         <v>62</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1600,7 +1941,7 @@
         <v>61</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1609,7 +1950,7 @@
         <v>62</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1627,7 +1968,7 @@
         <v>64</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1636,7 +1977,7 @@
         <v>57</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1644,19 +1985,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1664,10 +2005,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1676,7 +2017,7 @@
         <v>62</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1691,19 +2032,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1711,19 +2052,19 @@
         <v>33</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1748,10 +2089,10 @@
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1759,19 +2100,19 @@
         <v>56</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1779,10 +2120,10 @@
         <v>55</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1798,7 +2139,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B39" s="15">
         <v>1.679</v>
@@ -1809,7 +2150,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B40" s="21">
         <v>2545</v>
@@ -1834,6 +2175,825 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="64.5546875" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="36"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="37"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="37"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="37"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="30"/>
+      <c r="B35" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="3">
+        <v>5361</v>
+      </c>
+      <c r="C36" s="3">
+        <v>5361</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="3">
+        <v>6020.88</v>
+      </c>
+      <c r="C37" s="3">
+        <v>6061.79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="3">
+        <v>6106.51</v>
+      </c>
+      <c r="C38" s="3">
+        <v>6154.01</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.19209999999999999</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.18690000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.18859999999999999</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.18310000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B12 C7:C35 B14 B16 B18:B19 B21 B23 B25:B26 B28 B30:B31 B33 B35 B4" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A2:C43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="64.5546875" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="23"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="14"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="12"/>
+      <c r="B36" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="50">
+        <v>5361</v>
+      </c>
+      <c r="C39" s="51">
+        <v>5361</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="B40" s="50">
+        <v>15.5</v>
+      </c>
+      <c r="C40" s="51">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="50">
+        <v>-9406.8220000000001</v>
+      </c>
+      <c r="C41" s="51">
+        <v>-9421.41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="52">
+        <v>10708</v>
+      </c>
+      <c r="C42" s="53">
+        <v>10707</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B5:B13 C19:C24 C8:C10 B15 B17 B19:B20 B22 B24 B26:B27 B29 B31:B32 B34 B36 C26:C36" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1853,24 +3013,24 @@
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>97</v>
-      </c>
       <c r="E1" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>101</v>
+      <c r="A2" s="54" t="s">
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="3">
         <v>1651</v>
@@ -1884,24 +3044,24 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="54"/>
+      <c r="B4" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="C4" s="26">
         <v>-0.14599999999999999</v>
@@ -1912,11 +3072,11 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>102</v>
+      <c r="A5" s="54" t="s">
+        <v>101</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="3">
         <v>790</v>
@@ -1927,24 +3087,24 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="54"/>
+      <c r="B7" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
-      <c r="B7" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="C7" s="28">
         <v>0.13600000000000001</v>
@@ -1955,11 +3115,11 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>103</v>
+      <c r="A8" s="54" t="s">
+        <v>102</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="3">
         <v>504</v>
@@ -1970,9 +3130,9 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="25">
         <v>0.59799999999999998</v>
@@ -1985,9 +3145,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="28">
         <v>0.16300000000000001</v>
@@ -1999,17 +3159,17 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2025,8 +3185,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2041,12 +3201,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2273,15 +3430,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D7AB2FE-6FA8-48CE-B683-F37EF63F8F36}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C70D2F7D-F045-4789-BE76-B3E2E717680F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="49ac16d8-a030-4ca6-950b-388d4d74eeb6"/>
+    <ds:schemaRef ds:uri="0c62c59f-969b-4c73-930b-b52e0ce704af"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2306,18 +3475,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C70D2F7D-F045-4789-BE76-B3E2E717680F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D7AB2FE-6FA8-48CE-B683-F37EF63F8F36}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="49ac16d8-a030-4ca6-950b-388d4d74eeb6"/>
-    <ds:schemaRef ds:uri="0c62c59f-969b-4c73-930b-b52e0ce704af"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>